--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_beg.xlsx
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It feels like you’ve lost something inside yourself. Something you didn’t know was there, but knowing it won’t come back. 
+    <t xml:space="preserve">[name="???"]  It feels like you’ve lost something inside yourself. Something you didn’t know was there, but knowing it won’t come back. 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_beg.xlsx
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="PRTS"]  So you could argue that the system’s subjective judgment is substantially closer to objective truth.
+    <t xml:space="preserve">[name="PRTS"]  So you could argue that the system's subjective judgment is substantially closer to objective truth.
 </t>
   </si>
   <si>
@@ -940,19 +940,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It’s you. I’m sure of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I can feel it... you’re a little different.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  But... the person you’re holding, that uniform...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Can I ask who’s that you’re holding?
+    <t xml:space="preserve">[name="???"]  It's you. I'm sure of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I can feel it... you're a little different.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  But... the person you're holding, that uniform...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Can I ask who's that you're holding?
 </t>
   </si>
   <si>
@@ -968,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  No, you weren’t... This isn’t a lethal wound.
+    <t xml:space="preserve">[name="???"]  No, you weren't... This isn't a lethal wound.
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  No, that’s not what you meant.
+    <t xml:space="preserve">[name="???"]  No, that's not what you meant.
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  She’s your friend?
+    <t xml:space="preserve">[name="???"]  She's your friend?
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I don’t know... this might disappear soon.
+    <t xml:space="preserve">[name="???"]  I don't know... this might disappear soon.
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I’m not sure, but she...
+    <t xml:space="preserve">[name="???"]  I'm not sure, but she...
 </t>
   </si>
   <si>
@@ -1024,35 +1024,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  You don’t want me to do that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  No. I’m an outsider. I don’t know her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I can’t do this, can I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Can you read minds, like Amiya?;......;I’m having trouble understanding you.", values="4;5;6")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  No, I can’t...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Amiya is special. I know Amiya’s Arts... and I think she suffers a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I... I can’t touch her, and I can’t feel her.
+    <t xml:space="preserve">[name="???"]  You don't want me to do that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  No. I'm an outsider. I don't know her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I can't do this, can I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Can you read minds, like Amiya?;......;I'm having trouble understanding you.", values="4;5;6")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  No, I can't...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Amiya is special. I know Amiya's Arts... and I think she suffers a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I... I can't touch her, and I can't feel her.
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I’m... I’m sorry...
+    <t xml:space="preserve">[name="???"]  I'm... I'm sorry...
 </t>
   </si>
   <si>
@@ -1084,27 +1084,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Sorry.;......;I’m sorry, little girl.", values="7;8;9")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  No, it’s fine. I’m used to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  P-please don’t be mad...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  When you don’t speak, I... I don’t know what to say.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’d much rather someone be straight with me than be scared of me. So I’m fine.
+    <t xml:space="preserve">[Decision(options="Sorry.;......;I'm sorry, little girl.", values="7;8;9")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  No, it's fine. I'm used to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  P-please don't be mad...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  When you don't speak, I... I don't know what to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'd much rather someone be straight with me than be scared of me. So I'm fine.
 </t>
   </si>
   <si>
@@ -1132,11 +1132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re really familiar with it.",values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Oh, I’ve had to use it a lot.
+    <t xml:space="preserve">[Decision(options="You're really familiar with it.",values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Oh, I've had to use it a lot.
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  This is where all of Rhodes Island’s Infected end up.
+    <t xml:space="preserve">[name="???"]  This is where all of Rhodes Island's Infected end up.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Hmm... it’s like a chain.
+    <t xml:space="preserve">[name="???"]  Hmm... it's like a chain.
 </t>
   </si>
   <si>
@@ -1168,15 +1168,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Or I could say it’s like seeing the links between people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Sending off the people tied to you means untangling the lines around them. The other ends of the threads are still tied to us, but even when the one side is gone, the threads don’t hang down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  It feels like you’ve lost something inside yourself. Something you didn’t know was there, but knowing it won’t come back. 
+    <t xml:space="preserve">[name="???"]  Or I could say it's like seeing the links between people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Sending off the people tied to you means untangling the lines around them. The other ends of the threads are still tied to us, but even when the one side is gone, the threads don't hang down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  It feels like you've lost something inside yourself. Something you didn't know was there, but knowing it won't come back. 
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Because if you know the feeling, it won’t suddenly sting you, right?
+    <t xml:space="preserve">[name="???"]  Because if you know the feeling, it won't suddenly sting you, right?
 </t>
   </si>
   <si>
@@ -1208,11 +1208,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Oh, okay. I’ll go do that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m making a note of it in my terminal.
+    <t xml:space="preserve">[name="Rosmontis"]  Oh, okay. I'll go do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I'm making a note of it in my terminal.
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m... the only one who can use this.
+    <t xml:space="preserve">[name="Rosmontis"]  I'm... the only one who can use this.
 </t>
   </si>
   <si>
